--- a/NUnit_53_57_HauNgoc/UnitTest_53_57_HauNgoc/Data_53_57_HauNgoc/DataDriver_53_57_HauNgoc.xlsx
+++ b/NUnit_53_57_HauNgoc/UnitTest_53_57_HauNgoc/Data_53_57_HauNgoc/DataDriver_53_57_HauNgoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\KiemThuPhanMem\NUnit_53_57_HauNgoc\UnitTest_53_57_HauNgoc\Data_53_57_HauNgoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4FA4EF-8669-4B52-AE00-77F7AE819B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED698F08-CA18-423C-B328-0CB113FED650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>a_53_57_HauNgoc</t>
   </si>
@@ -39,13 +39,25 @@
     <t>expected_53_57_HauNgoc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.71, -1.88</t>
-  </si>
-  <si>
-    <t>Phương trình có vô số nghiệm</t>
-  </si>
-  <si>
-    <t>Phương trình vô nghiệm</t>
+    <t>Phuong trinh vo nghiem</t>
+  </si>
+  <si>
+    <t>Phuong trinh co vo so nghiem</t>
+  </si>
+  <si>
+    <t>x = 2</t>
+  </si>
+  <si>
+    <t>x1 = 0.71, x2 = -1.88</t>
+  </si>
+  <si>
+    <t>Nghiem kep x = 2</t>
+  </si>
+  <si>
+    <t>x = 23</t>
+  </si>
+  <si>
+    <t>x1 = -4.13, x2 = 2.14</t>
   </si>
 </sst>
 </file>
@@ -364,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,16 +405,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>-8</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -410,41 +422,153 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3">
-        <v>-8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>-32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-22</v>
+      </c>
+      <c r="C9">
+        <v>-11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-2</v>
+      </c>
+      <c r="B11">
+        <v>-12</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/NUnit_53_57_HauNgoc/UnitTest_53_57_HauNgoc/Data_53_57_HauNgoc/DataDriver_53_57_HauNgoc.xlsx
+++ b/NUnit_53_57_HauNgoc/UnitTest_53_57_HauNgoc/Data_53_57_HauNgoc/DataDriver_53_57_HauNgoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\KiemThuPhanMem\NUnit_53_57_HauNgoc\UnitTest_53_57_HauNgoc\Data_53_57_HauNgoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED698F08-CA18-423C-B328-0CB113FED650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A2555-AF67-497A-89E3-50C352415E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
